--- a/TCF4_variants_prioritized.xlsx
+++ b/TCF4_variants_prioritized.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI2021/variants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E8B05A-A657-974E-A13C-7A1B2292A395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE75BA11-9380-5C47-B78A-04C3A0A122D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="3880" windowWidth="36680" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCF4_dm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -3836,7 +3836,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3982,6 +3982,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="40">
@@ -4382,7 +4390,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4394,6 +4402,9 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4751,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AL37" sqref="AL37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4998,7 +5009,7 @@
       <c r="AG2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="11">
         <v>1</v>
       </c>
       <c r="AM2" s="2" t="s">
@@ -5105,7 +5116,7 @@
       <c r="AG3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="11">
         <v>1</v>
       </c>
       <c r="AM3" s="2" t="s">
@@ -6371,7 +6382,7 @@
       <c r="AG15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AL15" s="12">
         <v>1</v>
       </c>
       <c r="AM15" s="3" t="s">
@@ -7904,7 +7915,7 @@
       <c r="AK30" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="AL30" s="5">
+      <c r="AL30" s="13">
         <v>1</v>
       </c>
       <c r="AM30" s="5" t="s">
@@ -8017,7 +8028,7 @@
       <c r="AK31" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="AL31" s="5">
+      <c r="AL31" s="13">
         <v>1</v>
       </c>
       <c r="AM31" s="5" t="s">
@@ -8136,7 +8147,7 @@
       <c r="AK32" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="AL32" s="5">
+      <c r="AL32" s="13">
         <v>1</v>
       </c>
       <c r="AM32" s="5" t="s">
